--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_17-11.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_17-11.xlsx
@@ -89,6 +89,9 @@
     <t>CERVITAM 20 CAPS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -146,130 +149,130 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GOURYST 0.5 MG 100 TABS.</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>HYDROQUINE 200MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>NEXIUM 20MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>ONE FE ONE 120 ML SYRUP</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>PRAVOTIN 100MG 14 SACHETS</t>
+  </si>
+  <si>
+    <t>PRONTO PLUS 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:19</t>
+  </si>
+  <si>
+    <t>RESTOHERB SYRUP</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 50GM</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TRYPSALIN 20 TABS</t>
+  </si>
+  <si>
+    <t>14:1</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>YEAST MEPACO 60 TABS</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
     <t>3:0</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GOURYST 0.5 MG 100 TABS.</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>HI-CAL 1200MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>HYDROQUINE 200MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>MUCOPHYLLINE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>NEXIUM 20MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>ONE FE ONE 120 ML SYRUP</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>PRAVOTIN 100MG 14 SACHETS</t>
-  </si>
-  <si>
-    <t>PRONTO PLUS 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:19</t>
-  </si>
-  <si>
-    <t>RESTOHERB SYRUP</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 50GM</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TRYPSALIN 20 TABS</t>
-  </si>
-  <si>
-    <t>14:1</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 60 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>YEAST MEPACO 60 TABS</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1172,7 +1175,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1190,7 +1193,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1216,7 +1219,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1224,7 +1227,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1242,7 +1245,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1250,7 +1253,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1268,7 +1271,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1294,7 +1297,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1302,7 +1305,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1320,7 +1323,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1346,7 +1349,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1372,7 +1375,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1380,7 +1383,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1398,7 +1401,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1406,7 +1409,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1424,7 +1427,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1450,7 +1453,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1476,7 +1479,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1502,7 +1505,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1528,7 +1531,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1536,7 +1539,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1770,7 +1773,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -2108,7 +2111,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2212,7 +2215,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -2316,7 +2319,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2334,7 +2337,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2342,7 +2345,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2360,7 +2363,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2368,7 +2371,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2386,7 +2389,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2412,7 +2415,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2420,7 +2423,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2438,7 +2441,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2446,7 +2449,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2469,19 +2472,19 @@
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c t="s" r="A66" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c t="s" r="F66" s="13">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="14"/>
       <c t="s" r="I66" s="15">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J66" s="15"/>
       <c r="K66" s="15"/>
